--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.44654466666667</v>
+        <v>6.295968333333334</v>
       </c>
       <c r="H2">
-        <v>58.339634</v>
+        <v>18.887905</v>
       </c>
       <c r="I2">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="J2">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>1999.667659004347</v>
+        <v>696.6029858822466</v>
       </c>
       <c r="R2">
-        <v>17997.00893103912</v>
+        <v>6269.426872940219</v>
       </c>
       <c r="S2">
-        <v>0.4410667107259847</v>
+        <v>0.2767159298368269</v>
       </c>
       <c r="T2">
-        <v>0.4410667107259847</v>
+        <v>0.2767159298368269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.44654466666667</v>
+        <v>6.295968333333334</v>
       </c>
       <c r="H3">
-        <v>58.339634</v>
+        <v>18.887905</v>
       </c>
       <c r="I3">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="J3">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>1238.018145481566</v>
+        <v>400.8178920034362</v>
       </c>
       <c r="R3">
-        <v>11142.16330933409</v>
+        <v>3607.361028030925</v>
       </c>
       <c r="S3">
-        <v>0.2730696717466143</v>
+        <v>0.1592193802334868</v>
       </c>
       <c r="T3">
-        <v>0.2730696717466143</v>
+        <v>0.1592193802334868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.44654466666667</v>
+        <v>6.295968333333334</v>
       </c>
       <c r="H4">
-        <v>58.339634</v>
+        <v>18.887905</v>
       </c>
       <c r="I4">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="J4">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>359.4078298494634</v>
+        <v>174.5836845356911</v>
       </c>
       <c r="R4">
-        <v>3234.67046864517</v>
+        <v>1571.25316082122</v>
       </c>
       <c r="S4">
-        <v>0.07927458775814637</v>
+        <v>0.06935096113527041</v>
       </c>
       <c r="T4">
-        <v>0.07927458775814636</v>
+        <v>0.06935096113527041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.573247</v>
       </c>
       <c r="I5">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="J5">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>259.5829980618612</v>
+        <v>279.3081854776253</v>
       </c>
       <c r="R5">
-        <v>2336.246982556751</v>
+        <v>2513.773669298628</v>
       </c>
       <c r="S5">
-        <v>0.05725622385298871</v>
+        <v>0.1109513249610774</v>
       </c>
       <c r="T5">
-        <v>0.05725622385298871</v>
+        <v>0.1109513249610775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.573247</v>
       </c>
       <c r="I6">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="J6">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
         <v>160.7109363458439</v>
@@ -818,10 +818,10 @@
         <v>1446.398427112595</v>
       </c>
       <c r="S6">
-        <v>0.03544801244975297</v>
+        <v>0.06384020322503281</v>
       </c>
       <c r="T6">
-        <v>0.03544801244975297</v>
+        <v>0.06384020322503282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.573247</v>
       </c>
       <c r="I7">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="J7">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>46.65583382274833</v>
+        <v>70.00063612978089</v>
       </c>
       <c r="R7">
-        <v>419.902504404735</v>
+        <v>630.005725168028</v>
       </c>
       <c r="S7">
-        <v>0.01029087762044614</v>
+        <v>0.02780678737873805</v>
       </c>
       <c r="T7">
-        <v>0.01029087762044614</v>
+        <v>0.02780678737873805</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.539092333333333</v>
+        <v>3.639816666666666</v>
       </c>
       <c r="H8">
-        <v>7.617277</v>
+        <v>10.91945</v>
       </c>
       <c r="I8">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295675</v>
       </c>
       <c r="J8">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295676</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N8">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q8">
-        <v>261.0921842015267</v>
+        <v>402.7191726235333</v>
       </c>
       <c r="R8">
-        <v>2349.829657813741</v>
+        <v>3624.472553611799</v>
       </c>
       <c r="S8">
-        <v>0.05758910505127091</v>
+        <v>0.159974637740752</v>
       </c>
       <c r="T8">
-        <v>0.05758910505127091</v>
+        <v>0.159974637740752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.539092333333333</v>
+        <v>3.639816666666666</v>
       </c>
       <c r="H9">
-        <v>7.617277</v>
+        <v>10.91945</v>
       </c>
       <c r="I9">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295675</v>
       </c>
       <c r="J9">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295676</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q9">
-        <v>161.6452915210161</v>
+        <v>231.7202956514722</v>
       </c>
       <c r="R9">
-        <v>1454.807623689145</v>
+        <v>2085.48266086325</v>
       </c>
       <c r="S9">
-        <v>0.03565410317783336</v>
+        <v>0.09204769197486685</v>
       </c>
       <c r="T9">
-        <v>0.03565410317783336</v>
+        <v>0.09204769197486687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.539092333333333</v>
+        <v>3.639816666666666</v>
       </c>
       <c r="H10">
-        <v>7.617277</v>
+        <v>10.91945</v>
       </c>
       <c r="I10">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295675</v>
       </c>
       <c r="J10">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295676</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N10">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O10">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P10">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q10">
-        <v>46.92708555443166</v>
+        <v>100.9300827224222</v>
       </c>
       <c r="R10">
-        <v>422.3437699898849</v>
+        <v>908.3707445017999</v>
       </c>
       <c r="S10">
-        <v>0.01035070761696259</v>
+        <v>0.04009308351394866</v>
       </c>
       <c r="T10">
-        <v>0.01035070761696259</v>
+        <v>0.04009308351394866</v>
       </c>
     </row>
   </sheetData>
